--- a/폴더 구조.xlsx
+++ b/폴더 구조.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simtaejin/Docker/new_ewave_docker/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AC6C52D-9950-BF45-A7D1-8AEC2C99EBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75703F2D-7D7F-E248-87EF-3AB3800AAF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15920" yWindow="7920" windowWidth="28300" windowHeight="17440" xr2:uid="{30F8DBB1-FF67-7A48-B374-0D69AACDD6D1}"/>
+    <workbookView xWindow="18940" yWindow="14260" windowWidth="28300" windowHeight="17440" xr2:uid="{30F8DBB1-FF67-7A48-B374-0D69AACDD6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,160 +36,309 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>├── app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│   │   ├── Admin </t>
-  </si>
-  <si>
-    <t>│   │   └── Manager</t>
-  </si>
-  <si>
-    <t>│   │   └── Middleware</t>
-  </si>
-  <si>
-    <t>│   │   └── Entity</t>
-  </si>
-  <si>
-    <t>│   │   └── Admin</t>
-  </si>
-  <si>
-    <t>│   └── Utils</t>
-  </si>
-  <si>
-    <t>│   │   ├── css</t>
-  </si>
-  <si>
-    <t>│   │   ├── img</t>
-  </si>
-  <si>
-    <t>│   │   ├── js</t>
-  </si>
-  <si>
-    <t>│   │   └── libs</t>
-  </si>
-  <si>
-    <t>│   ├── static</t>
-  </si>
-  <si>
-    <t>│       ├── admin</t>
-  </si>
-  <si>
-    <t>│       │   ├── alert</t>
-  </si>
-  <si>
-    <t>│       │   ├── menu</t>
-  </si>
-  <si>
-    <t>│       │   ├── modules</t>
-  </si>
-  <si>
-    <t>│       │   └── pagination</t>
-  </si>
-  <si>
-    <t>│       └── manager</t>
-  </si>
-  <si>
-    <t>│           ├── alert</t>
-  </si>
-  <si>
-    <t>│           ├── menu</t>
-  </si>
-  <si>
-    <t>│           ├── modules</t>
-  </si>
-  <si>
-    <t>│           └── pagination</t>
-  </si>
-  <si>
-    <t>│   ├── admin</t>
-  </si>
-  <si>
-    <t>│   └── manager</t>
-  </si>
-  <si>
-    <t>    ├── composer</t>
-  </si>
-  <si>
-    <t>    └── william-costa</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>      </t>
   </si>
   <si>
-    <t xml:space="preserve">│   ├── Controller </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">컨트롤러 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">│   ├── Http </t>
+    <t>app</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constroller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Http</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Session</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utils</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crontab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>includes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>routes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨트롤러 관련 폴더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin 컨트롤러</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager 컨트롤러</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>request, response 정의</t>
-  </si>
-  <si>
-    <t>│   ├── Model</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 모델</t>
-  </si>
-  <si>
-    <t>│   ├── Session</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 로그인 관련 모음</t>
-  </si>
-  <si>
-    <t>├── includes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 환경 설정 관련 모음</t>
-  </si>
-  <si>
-    <t>├── resources</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 뷰 관련 모음</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│   ├── dist </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS, JS 관련 모음</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│   └── view </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>html 파일 모음</t>
-  </si>
-  <si>
-    <t>├── routes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> route 관련 모음</t>
-  </si>
-  <si>
-    <t xml:space="preserve">└── vendor </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>composer install 된 플러그인들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 관련 폴더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 관련 폴더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin 로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager 로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 크론탭 관련 폴더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디비 설정 및 미들웨어 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>static</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼블리싱 된 css, js 모음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabler css, js 모음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 네에 사용 되는 javascript 따로 분리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabler 관련 모음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>html 파일들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager 라우터 정의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우터 관련 폴더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin 라우터 정의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>composer install 된 플러인들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 depth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 depth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 depth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 함수 사용 관련 폴더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>db 설정 및 onesignal 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.env (파일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm</t>
+  </si>
+  <si>
+    <t>alarm_history</t>
+  </si>
+  <si>
+    <t>alarm_member</t>
+  </si>
+  <si>
+    <t>board_type_ref</t>
+  </si>
+  <si>
+    <t>board_type_symbol</t>
+  </si>
+  <si>
+    <t>control_data</t>
+  </si>
+  <si>
+    <t>date_group</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>push_send_log</t>
+  </si>
+  <si>
+    <t>raw_data</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>widget</t>
+  </si>
+  <si>
+    <t>widget_board_type</t>
+  </si>
+  <si>
+    <t>widget_data</t>
+  </si>
+  <si>
+    <t>소스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 설정 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 보낸 기록 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 수신자 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드웨어 정의 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드웨어 기기에 단위 정의 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제어 설정 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 관리 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디바이스 설정 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장 설정 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 설정 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push 발송 기록 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드웨어 장비 데이터 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용안함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위젯 설정 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위제에 기기 디스플레이 설정 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -562,232 +711,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4BA568-6EA2-9C4A-ADD2-BBA6C6E42B1F}">
-  <dimension ref="C4:F45"/>
+  <dimension ref="B3:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="5" max="5" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:5">
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5">
-      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="1" t="s">
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="C21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="1" t="s">
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="C22" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="1" t="s">
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5">
-      <c r="C32" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="27" spans="2:8">
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="3:6">
-      <c r="C33" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="3:6">
-      <c r="C34" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" t="s">
-        <v>45</v>
-      </c>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="3:6">
-      <c r="C37" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="3:6">
-      <c r="C38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" t="s">
-        <v>47</v>
-      </c>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="3:6">
-      <c r="C39" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="3:6">
-      <c r="C40" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C40" s="1"/>
     </row>
     <row r="45" spans="3:6">
       <c r="F45" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
